--- a/Project/Phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Project/Phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GonVirginia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GonVirginia\IdeaProjects\SE2122_55677_56773__56971_57066_58655\Project\Phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79967E07-237A-47E9-8266-52D36F866D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C8ADC-381B-46B5-8BB5-D68B7320B204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="1605" windowWidth="21600" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>In Progress</t>
-  </si>
-  <si>
-    <t>Reviewing</t>
   </si>
   <si>
     <t>Done</t>
@@ -213,34 +210,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -265,76 +235,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -637,7 +537,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -892,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -903,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -914,7 +814,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -925,7 +825,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -936,7 +836,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -947,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -958,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
@@ -969,7 +869,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -980,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
@@ -991,7 +891,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
@@ -1002,7 +902,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
@@ -1013,7 +913,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
@@ -1024,7 +924,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
@@ -1035,7 +935,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1044,21 +944,21 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="To do">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="To do">
       <formula>NOT(ISERROR(SEARCH("To do",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="To do">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="To do">
       <formula>NOT(ISERROR(SEARCH("To do",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Reviewing">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Reviewing">
       <formula>NOT(ISERROR(SEARCH("Reviewing",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Project/Phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Project/Phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GonVirginia\IdeaProjects\SE2122_55677_56773__56971_57066_58655\Project\Phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C8ADC-381B-46B5-8BB5-D68B7320B204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF8EE51-24E5-4C8B-965C-14EB5B0B0883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="1605" windowWidth="21600" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="1530" windowWidth="21600" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A15" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
